--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>478</v>
+        <v>331</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>61.99</v>
+        <v>0.09661726284841952</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>28.79</v>
+        <v>0.04310849591788538</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>644</v>
+        <v>518</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>96.40000000000001</v>
+        <v>0.1852044983857431</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>684</v>
+        <v>511</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>81.62</v>
+        <v>0.140318008579671</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>780</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>76.28</v>
+        <v>0.1920271827353295</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>40.5</v>
+        <v>0.1005508987146649</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>10.54</v>
+        <v>0.02006667249640375</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>15.43</v>
+        <v>0.03139286622919524</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H2" t="n">
         <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="H4" t="n">
         <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="H6" t="n">
         <v>44</v>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" t="n">
         <v>75</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.024999999999999</v>
+        <v>5.699999999999998</v>
       </c>
       <c r="H2" t="n">
         <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.899999999999999</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.3525</v>
+        <v>9.642499999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2.137499999999999</v>
+        <v>2.089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.324999999999999</v>
+        <v>3.419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.97274999999999</v>
+        <v>18.36024999999999</v>
       </c>
       <c r="H4" t="n">
         <v>3.048749999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.877999999999998</v>
+        <v>5.081249999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.426025</v>
+        <v>21.83765</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7829</v>
+        <v>3.868875</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5341</v>
+        <v>6.448125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.9398375</v>
+        <v>24.5706</v>
       </c>
       <c r="H6" t="n">
         <v>4.50461</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>31.1591735</v>
+        <v>27.4107015</v>
       </c>
       <c r="H7" t="n">
-        <v>5.271288749999999</v>
+        <v>5.154148999999999</v>
       </c>
       <c r="I7" t="n">
         <v>8.785481249999998</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1072.8</v>
+        <v>536.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3009.6</v>
+        <v>752.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752.4</v>
+        <v>3009.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3009.6</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910.8000000000001</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09661726284841952</v>
+        <v>1.037907061903384</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04310849591788538</v>
+        <v>0.3868250774364069</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1852044983857431</v>
+        <v>0.2170032114618809</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.140318008579671</v>
+        <v>0.0940687270518044</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1920271827353295</v>
+        <v>0.1848402772239993</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1005508987146649</v>
+        <v>0.9564042395275046</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02006667249640375</v>
+        <v>0.2540967566453866</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03139286622919524</v>
+        <v>0.1899135937700886</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="H2" t="n">
         <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H5" t="n">
         <v>45</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.699999999999998</v>
+        <v>6.599999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.642499999999997</v>
+        <v>11.02</v>
       </c>
       <c r="H3" t="n">
-        <v>2.089999999999999</v>
+        <v>2.137499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.419999999999999</v>
+        <v>3.609999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>18.36024999999999</v>
+        <v>19.17324999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.048749999999999</v>
+        <v>2.980999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5.081249999999998</v>
+        <v>4.945749999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.83765</v>
+        <v>22.52545</v>
       </c>
       <c r="H5" t="n">
         <v>3.868875</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.5706</v>
+        <v>31.12276</v>
       </c>
       <c r="H6" t="n">
-        <v>4.50461</v>
+        <v>4.606987499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.883067499999998</v>
+        <v>7.575934999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.4107015</v>
+        <v>21.67085375</v>
       </c>
       <c r="H7" t="n">
-        <v>5.154148999999999</v>
+        <v>5.3884285</v>
       </c>
       <c r="I7" t="n">
-        <v>8.785481249999998</v>
+        <v>8.434061999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>536.4</v>
+        <v>2145.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752.4</v>
+        <v>1504.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3762</v>
+        <v>1504.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>270</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>1.037907061903384</v>
+        <v>1.137125071287481</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3868250774364069</v>
+        <v>0.3345731382616964</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2170032114618809</v>
+        <v>0.2074705397381599</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0940687270518044</v>
+        <v>0.1020285801735963</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>589</v>
+        <v>351</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1848402772239993</v>
+        <v>0.1869483939455197</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9564042395275046</v>
+        <v>0.9211728795942695</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2540967566453866</v>
+        <v>0.2539613117164048</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1899135937700886</v>
+        <v>0.2060036584233458</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H2" t="n">
         <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="H3" t="n">
         <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="H4" t="n">
         <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.599999999999999</v>
+        <v>6.324999999999998</v>
       </c>
       <c r="H2" t="n">
         <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.899999999999999</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.02</v>
+        <v>13.49</v>
       </c>
       <c r="H3" t="n">
         <v>2.137499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.609999999999999</v>
+        <v>3.372499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.17324999999999</v>
+        <v>12.94025</v>
       </c>
       <c r="H4" t="n">
         <v>2.980999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.945749999999999</v>
+        <v>5.148999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.52545</v>
+        <v>17.109025</v>
       </c>
       <c r="H5" t="n">
-        <v>3.868875</v>
+        <v>3.7829</v>
       </c>
       <c r="I5" t="n">
-        <v>6.448125</v>
+        <v>6.36215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>31.12276</v>
+        <v>35.72974749999999</v>
       </c>
       <c r="H6" t="n">
-        <v>4.606987499999999</v>
+        <v>4.402232499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.575934999999999</v>
+        <v>7.678312499999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.67085375</v>
+        <v>29.40207725</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3884285</v>
+        <v>5.154148999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>8.434061999999999</v>
+        <v>8.551201749999999</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1504.8</v>
+        <v>2257.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3009.6</v>
+        <v>2257.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1504.8</v>
+        <v>752.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2277</v>
+        <v>910.8000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>324</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>1.137125071287481</v>
+        <v>7.470170424249097</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3345731382616964</v>
+        <v>3.15636664052513</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2074705397381599</v>
+        <v>2.197024255514112</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>599</v>
+        <v>460</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1020285801735963</v>
+        <v>0.9850421520811229</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>351</v>
+        <v>460</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1869483939455197</v>
+        <v>1.549996917499517</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9211728795942695</v>
+        <v>7.722357997405225</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2539613117164048</v>
+        <v>2.60427201937776</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2060036584233458</v>
+        <v>1.843159056505409</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1137,7 +1137,7 @@
         <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="H4" t="n">
         <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="n">
         <v>73</v>
@@ -1356,7 +1356,7 @@
         <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.49</v>
+        <v>10.545</v>
       </c>
       <c r="H3" t="n">
-        <v>2.137499999999999</v>
+        <v>2.232499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.372499999999999</v>
+        <v>3.609999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.94025</v>
+        <v>17.20849999999999</v>
       </c>
       <c r="H4" t="n">
         <v>2.980999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5.148999999999998</v>
+        <v>4.742499999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.109025</v>
+        <v>17.71085</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7829</v>
+        <v>3.868875</v>
       </c>
       <c r="I5" t="n">
-        <v>6.36215</v>
+        <v>6.706049999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.72974749999999</v>
+        <v>30.20136249999999</v>
       </c>
       <c r="H6" t="n">
-        <v>4.402232499999999</v>
+        <v>4.50461</v>
       </c>
       <c r="I6" t="n">
-        <v>7.678312499999999</v>
+        <v>7.883067499999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>29.40207725</v>
+        <v>26.707863</v>
       </c>
       <c r="H7" t="n">
-        <v>5.154148999999999</v>
+        <v>5.271288749999999</v>
       </c>
       <c r="I7" t="n">
         <v>8.551201749999999</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2257.2</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2257.2</v>
+        <v>3009.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752.4</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910.8000000000001</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>7.470170424249097</v>
+        <v>8.224097854591802</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>3.15636664052513</v>
+        <v>2.408292275747415</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>2.197024255514112</v>
+        <v>2.044761023891207</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9850421520811229</v>
+        <v>0.984686410196093</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>1.549996917499517</v>
+        <v>1.671471968753228</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -993,7 +993,7 @@
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>7.722357997405225</v>
+        <v>7.108643620161498</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>2.60427201937776</v>
+        <v>1.84184788423137</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>1.843159056505409</v>
+        <v>1.746893875731891</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="H7" t="n">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.324999999999998</v>
+        <v>6.549999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1</v>
+        <v>1.125</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.545</v>
+        <v>12.065</v>
       </c>
       <c r="H3" t="n">
-        <v>2.232499999999999</v>
+        <v>2.0425</v>
       </c>
       <c r="I3" t="n">
-        <v>3.609999999999999</v>
+        <v>3.467499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.20849999999999</v>
+        <v>20.39274999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2.980999999999999</v>
+        <v>3.048749999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.742499999999998</v>
+        <v>4.945749999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.71085</v>
+        <v>24.846775</v>
       </c>
       <c r="H5" t="n">
-        <v>3.868875</v>
+        <v>3.7829</v>
       </c>
       <c r="I5" t="n">
-        <v>6.706049999999999</v>
+        <v>6.36215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>30.20136249999999</v>
+        <v>30.40611749999999</v>
       </c>
       <c r="H6" t="n">
-        <v>4.50461</v>
+        <v>4.402232499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.883067499999998</v>
+        <v>7.166424999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>26.707863</v>
+        <v>31.04203375</v>
       </c>
       <c r="H7" t="n">
         <v>5.271288749999999</v>
       </c>
       <c r="I7" t="n">
-        <v>8.551201749999999</v>
+        <v>8.785481249999998</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2145.6</v>
+        <v>1609.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2277</v>
+        <v>455.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>243</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>405</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -842,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>8.224097854591802</v>
+        <v>14.52533333333333</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -871,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>2.408292275747415</v>
+        <v>5.861066666666667</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>2.044761023891207</v>
+        <v>3.816</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.984686410196093</v>
+        <v>1.59</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>1.671471968753228</v>
+        <v>2.862</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>718</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>7.108643620161498</v>
+        <v>12.194</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>1.84184788423137</v>
+        <v>4.555066666666668</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>1.746893875731891</v>
+        <v>3.637333333333333</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
         <v>76</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
         <v>73</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
         <v>74</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H7" t="n">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.549999999999999</v>
+        <v>6.049999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="n">
         <v>1.899999999999999</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.065</v>
+        <v>9.452499999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0425</v>
+        <v>2.137499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.467499999999999</v>
+        <v>3.419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.39274999999999</v>
+        <v>16.05674999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.048749999999999</v>
+        <v>3.116499999999999</v>
       </c>
       <c r="I4" t="n">
         <v>4.945749999999999</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.846775</v>
+        <v>19.9462</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7829</v>
+        <v>3.868875</v>
       </c>
       <c r="I5" t="n">
         <v>6.36215</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>30.40611749999999</v>
+        <v>23.2396925</v>
       </c>
       <c r="H6" t="n">
-        <v>4.402232499999999</v>
+        <v>4.50461</v>
       </c>
       <c r="I6" t="n">
-        <v>7.166424999999998</v>
+        <v>7.473557499999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>31.04203375</v>
+        <v>31.6277325</v>
       </c>
       <c r="H7" t="n">
         <v>5.271288749999999</v>
       </c>
       <c r="I7" t="n">
-        <v>8.785481249999998</v>
+        <v>8.434061999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1609.2</v>
+        <v>2793.333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>648</v>
+        <v>5908.333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3762</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3009.6</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3762</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>455.4</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>448.3333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>14.52533333333333</v>
+        <v>7.761</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>5.861066666666667</v>
+        <v>2.9636</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>3.816</v>
+        <v>2.0064</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>1.59</v>
+        <v>0.836</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>2.862</v>
+        <v>1.5048</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>12.194</v>
+        <v>6.595333333333333</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>4.555066666666668</v>
+        <v>2.277533333333333</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>3.637333333333333</v>
+        <v>1.851733333333334</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="H3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="H5" t="n">
         <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="H6" t="n">
         <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.049999999999999</v>
+        <v>4.799999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1</v>
+        <v>1.075</v>
       </c>
       <c r="I2" t="n">
-        <v>1.899999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.452499999999997</v>
+        <v>11.495</v>
       </c>
       <c r="H3" t="n">
-        <v>2.137499999999999</v>
+        <v>2.185</v>
       </c>
       <c r="I3" t="n">
-        <v>3.419999999999999</v>
+        <v>3.562499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.05674999999999</v>
+        <v>19.03774999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.116499999999999</v>
+        <v>3.048749999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.945749999999999</v>
+        <v>5.284499999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>19.9462</v>
+        <v>22.6974</v>
       </c>
       <c r="H5" t="n">
         <v>3.868875</v>
       </c>
       <c r="I5" t="n">
-        <v>6.36215</v>
+        <v>6.448125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.2396925</v>
+        <v>26.41339499999999</v>
       </c>
       <c r="H6" t="n">
         <v>4.50461</v>
       </c>
       <c r="I6" t="n">
-        <v>7.473557499999998</v>
+        <v>7.678312499999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>31.6277325</v>
+        <v>33.38482875</v>
       </c>
       <c r="H7" t="n">
-        <v>5.271288749999999</v>
+        <v>5.3884285</v>
       </c>
       <c r="I7" t="n">
-        <v>8.434061999999999</v>
+        <v>8.551201749999999</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2793.333333333333</v>
+        <v>14925</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5908.333333333332</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7950</v>
+        <v>16720</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7950</v>
+        <v>16720</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3975</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11725</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448.3333333333334</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2200</v>
+        <v>2986.666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>7.761</v>
+        <v>7.518333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>2.9636</v>
+        <v>2.934666666666667</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -906,7 +906,7 @@
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0064</v>
+        <v>1.956</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -935,7 +935,7 @@
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.836</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -964,7 +964,7 @@
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>1.5048</v>
+        <v>1.467</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>6.595333333333333</v>
+        <v>6.387333333333332</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>2.277533333333333</v>
+        <v>2.2098</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1051,7 +1051,7 @@
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>1.851733333333334</v>
+        <v>1.855866666666667</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="H6" t="n">
         <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.799999999999999</v>
+        <v>4.524999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.075</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.495</v>
+        <v>12.3025</v>
       </c>
       <c r="H3" t="n">
-        <v>2.185</v>
+        <v>2.089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.562499999999999</v>
+        <v>3.514999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.03774999999999</v>
+        <v>15.98899999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.048749999999999</v>
+        <v>2.913249999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5.284499999999998</v>
+        <v>5.148999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.6974</v>
+        <v>20.891925</v>
       </c>
       <c r="H5" t="n">
-        <v>3.868875</v>
+        <v>3.7829</v>
       </c>
       <c r="I5" t="n">
-        <v>6.448125</v>
+        <v>6.36215</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.41339499999999</v>
+        <v>30.40611749999999</v>
       </c>
       <c r="H6" t="n">
         <v>4.50461</v>
       </c>
       <c r="I6" t="n">
-        <v>7.678312499999999</v>
+        <v>7.473557499999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33.38482875</v>
+        <v>30.2220555</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3884285</v>
+        <v>5.154148999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>8.551201749999999</v>
+        <v>9.01976075</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14925</v>
+        <v>11566.66666666666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5975</v>
+        <v>4733.333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16720</v>
+        <v>20375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16720</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20900</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7610</v>
+        <v>2456.666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1345</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2986.666666666667</v>
+        <v>2993.333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>7.518333333333333</v>
+        <v>2.9063125</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>2.934666666666667</v>
+        <v>1.105925</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>1.956</v>
+        <v>0.7506000000000002</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.31275</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>1.467</v>
+        <v>0.5629500000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>684</v>
+        <v>546</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>6.387333333333332</v>
+        <v>2.471625</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>2.2098</v>
+        <v>0.8493125000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>1.855866666666667</v>
+        <v>0.6913</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1077,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
         <v>75</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,12 +1276,186 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>238</v>
+      </c>
+      <c r="H8" t="n">
+        <v>43</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>217</v>
+      </c>
+      <c r="H9" t="n">
+        <v>42</v>
+      </c>
+      <c r="I9" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>234</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>265</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46</v>
+      </c>
+      <c r="I11" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>317</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>241</v>
+      </c>
+      <c r="H13" t="n">
+        <v>46</v>
+      </c>
+      <c r="I13" t="n">
         <v>77</v>
       </c>
     </row>
@@ -1296,7 +1470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.524999999999999</v>
+        <v>6.474999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05</v>
+        <v>1.125</v>
       </c>
       <c r="I2" t="n">
         <v>1.875</v>
@@ -1379,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.3025</v>
+        <v>13.395</v>
       </c>
       <c r="H3" t="n">
-        <v>2.089999999999999</v>
+        <v>2.0425</v>
       </c>
       <c r="I3" t="n">
-        <v>3.514999999999999</v>
+        <v>3.609999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.98899999999999</v>
+        <v>16.12449999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2.913249999999999</v>
+        <v>3.048749999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5.148999999999998</v>
+        <v>4.945749999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20.891925</v>
+        <v>27.1681</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7829</v>
+        <v>3.868875</v>
       </c>
       <c r="I5" t="n">
-        <v>6.36215</v>
+        <v>6.5341</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>30.40611749999999</v>
+        <v>23.8539575</v>
       </c>
       <c r="H6" t="n">
-        <v>4.50461</v>
+        <v>4.606987499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.473557499999998</v>
+        <v>7.780689999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1669,187 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>30.2220555</v>
+        <v>23.6622295</v>
       </c>
       <c r="H7" t="n">
-        <v>5.154148999999999</v>
+        <v>5.271288749999999</v>
       </c>
       <c r="I7" t="n">
-        <v>9.01976075</v>
+        <v>8.668341499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31.04133444999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.608308324999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.781933124999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.89715385749999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.980094294999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.3939734175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35.8359013935</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.891519498749998</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.3327209535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>43.150053343375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.49019793885</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.560957688225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>54.38051025986749</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.719630793987499</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.35140927038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43.23362042701974</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.252060330468499</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.81323142274075</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11566.66666666666</v>
+        <v>5961.666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4733.333333333333</v>
+        <v>4756.666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20375</v>
+        <v>16680</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16300</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4075</v>
+        <v>16680</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1573,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2456.666666666667</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1581,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2175</v>
+        <v>2229.166666666667</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1589,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2993.333333333333</v>
+        <v>2973.333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1706,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1738,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1770,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1802,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -848,7 +848,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>2.9063125</v>
+        <v>2.754375</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -877,7 +877,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>1.105925</v>
+        <v>1.10515</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>900</v>
+        <v>828</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7506000000000002</v>
+        <v>0.7224000000000002</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -929,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>900</v>
+        <v>828</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.31275</v>
+        <v>0.301</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>900</v>
+        <v>828</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5629500000000001</v>
+        <v>0.5418000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>546</v>
+        <v>445</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>2.471625</v>
+        <v>2.328625</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1022,7 +1022,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8493125000000001</v>
+        <v>0.83185</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1045,13 +1045,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6913</v>
+        <v>0.6990500000000002</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1077,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H6" t="n">
         <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,187 +1276,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>238</v>
-      </c>
-      <c r="H8" t="n">
-        <v>43</v>
-      </c>
-      <c r="I8" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>217</v>
-      </c>
-      <c r="H9" t="n">
-        <v>42</v>
-      </c>
-      <c r="I9" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>234</v>
-      </c>
-      <c r="H10" t="n">
-        <v>45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>265</v>
-      </c>
-      <c r="H11" t="n">
-        <v>46</v>
-      </c>
-      <c r="I11" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>317</v>
-      </c>
-      <c r="H12" t="n">
-        <v>45</v>
-      </c>
-      <c r="I12" t="n">
         <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>241</v>
-      </c>
-      <c r="H13" t="n">
-        <v>46</v>
-      </c>
-      <c r="I13" t="n">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.474999999999999</v>
+        <v>6.124999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1.125</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1553,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.395</v>
+        <v>9.357499999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0425</v>
+        <v>2.089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.609999999999999</v>
+        <v>3.419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1582,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.12449999999999</v>
+        <v>17.68275</v>
       </c>
       <c r="H4" t="n">
-        <v>3.048749999999999</v>
+        <v>2.980999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>4.945749999999999</v>
+        <v>5.352249999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1611,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.1681</v>
+        <v>18.9145</v>
       </c>
       <c r="H5" t="n">
-        <v>3.868875</v>
+        <v>3.696925</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5341</v>
+        <v>6.792025</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1640,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.8539575</v>
+        <v>22.52305</v>
       </c>
       <c r="H6" t="n">
         <v>4.606987499999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.780689999999999</v>
+        <v>7.883067499999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1669,187 +1495,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>23.6622295</v>
+        <v>33.9705275</v>
       </c>
       <c r="H7" t="n">
-        <v>5.271288749999999</v>
+        <v>4.919869499999999</v>
       </c>
       <c r="I7" t="n">
-        <v>8.668341499999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.04133444999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.608308324999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.781933124999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>30.89715385749999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.980094294999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.3939734175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>35.8359013935</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.891519498749998</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.3327209535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>43.150053343375</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.49019793885</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.560957688225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>54.38051025986749</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7.719630793987499</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.35140927038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>43.23362042701974</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.252060330468499</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13.81323142274075</v>
+        <v>8.434061999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5961.666666666666</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1889,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4756.666666666666</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1897,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16680</v>
+        <v>4013.333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1905,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8340</v>
+        <v>8026.666666666668</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1913,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16680</v>
+        <v>20066.66666666667</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1921,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12675</v>
+        <v>4776.666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1929,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2229.166666666667</v>
+        <v>436.6666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1937,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2973.333333333333</v>
+        <v>751.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2054,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2118,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2150,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2182,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2214,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/01_NonStationary.xlsx
+++ b/Instances/01_NonStationary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -46,7 +46,10 @@
     <t>NonStationary</t>
   </si>
   <si>
-    <t>NrTimeBucketWithoutUncertainty</t>
+    <t>NrTimeBucketWithoutUncertaintyBefore</t>
+  </si>
+  <si>
+    <t>NrTimeBucketWithoutUncertaintyAfter</t>
   </si>
   <si>
     <t>Manuf_0001</t>
@@ -443,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -509,6 +512,14 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -533,33 +544,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -588,7 +599,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -617,7 +628,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -646,7 +657,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -675,7 +686,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -704,7 +715,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -762,7 +773,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -810,33 +821,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -848,7 +859,7 @@
         <v>0.026</v>
       </c>
       <c r="E2" t="n">
-        <v>2.754375</v>
+        <v>9.500400000000001</v>
       </c>
       <c r="F2" t="n">
         <v>0.26</v>
@@ -865,7 +876,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -877,7 +888,7 @@
         <v>0.0248</v>
       </c>
       <c r="E3" t="n">
-        <v>1.10515</v>
+        <v>3.4752</v>
       </c>
       <c r="F3" t="n">
         <v>0.248</v>
@@ -894,19 +905,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>828</v>
+        <v>895</v>
       </c>
       <c r="D4" t="n">
         <v>0.0048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7224000000000002</v>
+        <v>4.0816</v>
       </c>
       <c r="F4" t="n">
         <v>0.048</v>
@@ -923,19 +934,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>828</v>
+        <v>895</v>
       </c>
       <c r="D5" t="n">
         <v>0.002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.301</v>
+        <v>1.700666666666667</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
@@ -952,19 +963,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>828</v>
+        <v>895</v>
       </c>
       <c r="D6" t="n">
         <v>0.0036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5418000000000001</v>
+        <v>3.0612</v>
       </c>
       <c r="F6" t="n">
         <v>0.036</v>
@@ -981,19 +992,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>445</v>
+        <v>522</v>
       </c>
       <c r="D7" t="n">
         <v>0.026</v>
       </c>
       <c r="E7" t="n">
-        <v>2.328625</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.26</v>
@@ -1010,7 +1021,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1022,7 +1033,7 @@
         <v>0.0508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.83185</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.508</v>
@@ -1039,19 +1050,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
         <v>0.0248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6990500000000002</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.248</v>
@@ -1087,28 +1098,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1131,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1160,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1189,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1218,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1247,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1276,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="H7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1306,28 +1317,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1350,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.124999999999998</v>
+        <v>6.799999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1</v>
+        <v>1.075</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1379,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.357499999999998</v>
+        <v>11.685</v>
       </c>
       <c r="H3" t="n">
-        <v>2.089999999999999</v>
+        <v>2.137499999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>3.419999999999999</v>
+        <v>3.562499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1408,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17.68275</v>
+        <v>19.44424999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2.980999999999999</v>
+        <v>3.184249999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5.352249999999998</v>
+        <v>5.013499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9145</v>
+        <v>22.267525</v>
       </c>
       <c r="H5" t="n">
-        <v>3.696925</v>
+        <v>3.7829</v>
       </c>
       <c r="I5" t="n">
-        <v>6.792025</v>
+        <v>6.5341</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1466,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.52305</v>
+        <v>27.43716999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>4.606987499999999</v>
+        <v>4.709364999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>7.883067499999998</v>
+        <v>7.985444999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33.9705275</v>
+        <v>26.59072325</v>
       </c>
       <c r="H7" t="n">
-        <v>4.919869499999999</v>
+        <v>5.03700925</v>
       </c>
       <c r="I7" t="n">
-        <v>8.434061999999999</v>
+        <v>9.254040249999999</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3565</v>
+        <v>8503.333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,47 +1560,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4013.333333333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8026.666666666668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20066.66666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4776.666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>436.6666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>751.6666666666667</v>
+        <v>45067.66666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,7 +1582,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -1621,83 +1592,38 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1706,27 +1632,12 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -1735,27 +1646,12 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1764,27 +1660,12 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1795,25 +1676,10 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1824,25 +1690,10 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1852,21 +1703,6 @@
       </c>
       <c r="D9" t="n">
         <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
